--- a/data/pca/factorExposure/factorExposure_2018-09-10.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-09-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.03684845729694386</v>
+        <v>-0.02951361776259379</v>
       </c>
       <c r="C2">
-        <v>0.04780442640166959</v>
+        <v>0.01340996974700214</v>
       </c>
       <c r="D2">
-        <v>0.03679180927409184</v>
+        <v>-0.011458489123548</v>
       </c>
       <c r="E2">
-        <v>-0.05123330732262945</v>
+        <v>0.01406051381915377</v>
       </c>
       <c r="F2">
-        <v>0.1511048408958297</v>
+        <v>0.02402294274370173</v>
       </c>
       <c r="G2">
-        <v>0.06137675694631882</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.08137531275622548</v>
+      </c>
+      <c r="H2">
+        <v>0.01425893752913144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.1227683893038148</v>
+        <v>-0.07859126843351089</v>
       </c>
       <c r="C3">
-        <v>0.006223912812538004</v>
+        <v>-0.01776430116042857</v>
       </c>
       <c r="D3">
-        <v>0.04550155508490052</v>
+        <v>-0.02146272053793551</v>
       </c>
       <c r="E3">
-        <v>-0.09597656082443112</v>
+        <v>0.007990870560971574</v>
       </c>
       <c r="F3">
-        <v>0.4196062633959093</v>
+        <v>-0.0124090886895004</v>
       </c>
       <c r="G3">
-        <v>0.1713268626720134</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.2706772187329945</v>
+      </c>
+      <c r="H3">
+        <v>0.03565216313467576</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.05211355446232084</v>
+        <v>-0.04713229360993137</v>
       </c>
       <c r="C4">
-        <v>0.03834501846027673</v>
+        <v>0.001240518688451578</v>
       </c>
       <c r="D4">
-        <v>-0.003421295211244914</v>
+        <v>-0.02808174243625697</v>
       </c>
       <c r="E4">
-        <v>-0.06890835149009564</v>
+        <v>-0.02102258182049582</v>
       </c>
       <c r="F4">
-        <v>0.0677747356901567</v>
+        <v>0.05935580040107295</v>
       </c>
       <c r="G4">
-        <v>0.05166522836339244</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.04744787789692798</v>
+      </c>
+      <c r="H4">
+        <v>0.02626513372634593</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01153162879319396</v>
+        <v>-0.0295057003972293</v>
       </c>
       <c r="C6">
-        <v>-0.0005367411207360956</v>
+        <v>0.001715177615451981</v>
       </c>
       <c r="D6">
-        <v>0.01318744776983365</v>
+        <v>-0.0357228073911473</v>
       </c>
       <c r="E6">
-        <v>-0.01307518651055251</v>
+        <v>-0.005361382907970328</v>
       </c>
       <c r="F6">
-        <v>0.01321034448450534</v>
+        <v>0.03725792449017028</v>
       </c>
       <c r="G6">
-        <v>-0.01575946590981415</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.0139823980868923</v>
+      </c>
+      <c r="H6">
+        <v>0.0520158820189097</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02733683550759726</v>
+        <v>-0.02051367080935878</v>
       </c>
       <c r="C7">
-        <v>0.02090841227850234</v>
+        <v>0.001335839756992688</v>
       </c>
       <c r="D7">
-        <v>0.02973735874349031</v>
+        <v>-0.01692811217410456</v>
       </c>
       <c r="E7">
-        <v>-0.04038867892934149</v>
+        <v>-0.03584260706572881</v>
       </c>
       <c r="F7">
-        <v>0.07185091084066465</v>
+        <v>0.02509241956106205</v>
       </c>
       <c r="G7">
-        <v>0.04613959531681424</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.03689998096285135</v>
+      </c>
+      <c r="H7">
+        <v>0.01327078917435714</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01225231774692411</v>
+        <v>-0.002646527167938162</v>
       </c>
       <c r="C8">
-        <v>0.01361834444013362</v>
+        <v>-0.00122433830240909</v>
       </c>
       <c r="D8">
-        <v>-0.005851173943246991</v>
+        <v>-0.007988472540630618</v>
       </c>
       <c r="E8">
-        <v>-0.07448677831655459</v>
+        <v>-0.0123317083628664</v>
       </c>
       <c r="F8">
-        <v>0.09163362022112023</v>
+        <v>0.02632929667608707</v>
       </c>
       <c r="G8">
-        <v>0.05148981092952646</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.05364800362045919</v>
+      </c>
+      <c r="H8">
+        <v>0.006148178539801204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.04294054583411822</v>
+        <v>-0.03767705284662941</v>
       </c>
       <c r="C9">
-        <v>0.03244328610547523</v>
+        <v>-0.002365843409908791</v>
       </c>
       <c r="D9">
-        <v>-0.01486099388958715</v>
+        <v>-0.02376624251878166</v>
       </c>
       <c r="E9">
-        <v>-0.0683188815371894</v>
+        <v>-0.01861855948373036</v>
       </c>
       <c r="F9">
-        <v>0.07055046839009603</v>
+        <v>0.03806387749673441</v>
       </c>
       <c r="G9">
-        <v>0.04024801277582114</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.05986434621568141</v>
+      </c>
+      <c r="H9">
+        <v>0.02467415098780391</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.05641416111068287</v>
+        <v>-0.09263357819320854</v>
       </c>
       <c r="C10">
-        <v>0.04597970299376942</v>
+        <v>-0.03888095779245472</v>
       </c>
       <c r="D10">
-        <v>-0.01321646790411359</v>
+        <v>0.1430687927373794</v>
       </c>
       <c r="E10">
-        <v>0.1119503025475183</v>
+        <v>0.01886292473243553</v>
       </c>
       <c r="F10">
-        <v>0.05347611219775864</v>
+        <v>-0.07909643184166232</v>
       </c>
       <c r="G10">
-        <v>-0.007394117556764645</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.02653421626589551</v>
+      </c>
+      <c r="H10">
+        <v>0.004306204753303909</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03264310247374913</v>
+        <v>-0.02233731007356084</v>
       </c>
       <c r="C11">
-        <v>0.01213111650765418</v>
+        <v>-0.009661550379086701</v>
       </c>
       <c r="D11">
-        <v>0.01553718326985899</v>
+        <v>-0.03217478179702158</v>
       </c>
       <c r="E11">
-        <v>-0.03638442043855543</v>
+        <v>0.003716685518019693</v>
       </c>
       <c r="F11">
-        <v>0.03808270924667063</v>
+        <v>0.02416096451816847</v>
       </c>
       <c r="G11">
-        <v>0.01158351264280832</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.03482228209782924</v>
+      </c>
+      <c r="H11">
+        <v>0.02676024100326855</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03995470677386278</v>
+        <v>-0.03146401357438116</v>
       </c>
       <c r="C12">
-        <v>0.01319276818792273</v>
+        <v>-0.008755682089634308</v>
       </c>
       <c r="D12">
-        <v>0.00243688652058754</v>
+        <v>-0.0310815033221322</v>
       </c>
       <c r="E12">
-        <v>-0.04472643880404638</v>
+        <v>-0.007141343236349144</v>
       </c>
       <c r="F12">
-        <v>0.01922330640223326</v>
+        <v>0.02728830769067478</v>
       </c>
       <c r="G12">
-        <v>0.009351467204435164</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.01233084960097366</v>
+      </c>
+      <c r="H12">
+        <v>0.01379327210895628</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01882009024567466</v>
+        <v>-0.02470081781139542</v>
       </c>
       <c r="C13">
-        <v>0.02407029849126441</v>
+        <v>0.01218306438721179</v>
       </c>
       <c r="D13">
-        <v>0.03476851261391652</v>
+        <v>-0.002776030782630459</v>
       </c>
       <c r="E13">
-        <v>-0.02124962421967401</v>
+        <v>0.01627892279310852</v>
       </c>
       <c r="F13">
-        <v>0.09378196540149106</v>
+        <v>0.02168310217839968</v>
       </c>
       <c r="G13">
-        <v>0.0309735460757402</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.0660677225781007</v>
+      </c>
+      <c r="H13">
+        <v>0.02391738006591062</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01103273302438796</v>
+        <v>-0.01581648930296159</v>
       </c>
       <c r="C14">
-        <v>0.0220958554281522</v>
+        <v>-0.001074825153739632</v>
       </c>
       <c r="D14">
-        <v>0.002764760330475203</v>
+        <v>-0.001341337844560604</v>
       </c>
       <c r="E14">
-        <v>-0.04041353798444008</v>
+        <v>-0.008396908043776553</v>
       </c>
       <c r="F14">
-        <v>0.07014378730711567</v>
+        <v>0.02636928091460213</v>
       </c>
       <c r="G14">
-        <v>0.05588741155939077</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.04426905553425244</v>
+      </c>
+      <c r="H14">
+        <v>-0.02026800199495316</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02523887186104884</v>
+        <v>-0.02339904403843559</v>
       </c>
       <c r="C16">
-        <v>0.01375953576292998</v>
+        <v>-0.01019018841176742</v>
       </c>
       <c r="D16">
-        <v>0.01281871321283167</v>
+        <v>-0.02739784442572274</v>
       </c>
       <c r="E16">
-        <v>-0.03412799461823322</v>
+        <v>-0.001101465439532941</v>
       </c>
       <c r="F16">
-        <v>0.04095090017035972</v>
+        <v>0.02522458601956986</v>
       </c>
       <c r="G16">
-        <v>0.01550794017170306</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.03013953219917566</v>
+      </c>
+      <c r="H16">
+        <v>0.0207349168018624</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.03769371613862821</v>
+        <v>-0.0328839305930752</v>
       </c>
       <c r="C19">
-        <v>0.01322190140343051</v>
+        <v>-0.002356752995762199</v>
       </c>
       <c r="D19">
-        <v>0.02057593672556687</v>
+        <v>-0.0107729313438686</v>
       </c>
       <c r="E19">
-        <v>-0.05264042003580671</v>
+        <v>0.001398690296524953</v>
       </c>
       <c r="F19">
-        <v>0.1043178761540941</v>
+        <v>0.032396692619197</v>
       </c>
       <c r="G19">
-        <v>0.04054841865218696</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.07004681755088817</v>
+      </c>
+      <c r="H19">
+        <v>0.03737903962996292</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.004502948346989453</v>
+        <v>-0.006530095765987683</v>
       </c>
       <c r="C20">
-        <v>0.02275707188475326</v>
+        <v>0.007170062460897576</v>
       </c>
       <c r="D20">
-        <v>0.007443059363441541</v>
+        <v>-0.002137192885692094</v>
       </c>
       <c r="E20">
-        <v>-0.03485047654863398</v>
+        <v>-0.001433259303023619</v>
       </c>
       <c r="F20">
-        <v>0.06923625234637656</v>
+        <v>0.01809497741390874</v>
       </c>
       <c r="G20">
-        <v>0.05664498690768321</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.05008052674062368</v>
+      </c>
+      <c r="H20">
+        <v>-0.01013947488066611</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.003508004835015958</v>
+        <v>-0.02008878895813667</v>
       </c>
       <c r="C21">
-        <v>-0.001072522370883095</v>
+        <v>0.005381377654794107</v>
       </c>
       <c r="D21">
-        <v>0.003646477352572989</v>
+        <v>-0.00159555590952245</v>
       </c>
       <c r="E21">
-        <v>-0.03562373856304209</v>
+        <v>-0.01306810131896314</v>
       </c>
       <c r="F21">
-        <v>0.07841963447091188</v>
+        <v>0.009042830424045611</v>
       </c>
       <c r="G21">
-        <v>0.01046048460795623</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.05475883429911609</v>
+      </c>
+      <c r="H21">
+        <v>0.00767035610963211</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02841048985742475</v>
+        <v>-0.02205462215055633</v>
       </c>
       <c r="C24">
-        <v>0.01362132986617651</v>
+        <v>-0.004704794513488354</v>
       </c>
       <c r="D24">
-        <v>0.009773432929146456</v>
+        <v>-0.02818930060854091</v>
       </c>
       <c r="E24">
-        <v>-0.02772378771534355</v>
+        <v>-0.001014645660183274</v>
       </c>
       <c r="F24">
-        <v>0.03835770802342965</v>
+        <v>0.0212248023532098</v>
       </c>
       <c r="G24">
-        <v>0.004849076534996622</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.02890587595071299</v>
+      </c>
+      <c r="H24">
+        <v>0.02640451267416035</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03153763965718757</v>
+        <v>-0.03313903119186988</v>
       </c>
       <c r="C25">
-        <v>0.01123271250913238</v>
+        <v>-0.004138765961973858</v>
       </c>
       <c r="D25">
-        <v>0.007307579747420777</v>
+        <v>-0.02373913751003433</v>
       </c>
       <c r="E25">
-        <v>-0.03582256153956231</v>
+        <v>-0.001630522566831524</v>
       </c>
       <c r="F25">
-        <v>0.03481873649760939</v>
+        <v>0.02547738516929393</v>
       </c>
       <c r="G25">
-        <v>-0.003409288286321816</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.03269684027894813</v>
+      </c>
+      <c r="H25">
+        <v>0.02855646436554889</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01875320282626962</v>
+        <v>-0.01846973639047774</v>
       </c>
       <c r="C26">
-        <v>0.001006186008042317</v>
+        <v>0.01675754593880658</v>
       </c>
       <c r="D26">
-        <v>0.03584026821683461</v>
+        <v>-0.003542791729080676</v>
       </c>
       <c r="E26">
-        <v>-0.04252076578199426</v>
+        <v>0.006175498250914152</v>
       </c>
       <c r="F26">
-        <v>0.05651275515300687</v>
+        <v>0.006253155960983738</v>
       </c>
       <c r="G26">
-        <v>0.02793846403917486</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.03748003898360715</v>
+      </c>
+      <c r="H26">
+        <v>-0.003393672046758271</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.07493343404100357</v>
+        <v>-0.03202003133812838</v>
       </c>
       <c r="C27">
-        <v>0.04994448601852911</v>
+        <v>-0.01472645589500405</v>
       </c>
       <c r="D27">
-        <v>0.001399834591070826</v>
+        <v>-0.00996577717172652</v>
       </c>
       <c r="E27">
-        <v>-0.05962540719474846</v>
+        <v>-0.004017390539256738</v>
       </c>
       <c r="F27">
-        <v>0.05940673231430131</v>
+        <v>0.02750911757488933</v>
       </c>
       <c r="G27">
-        <v>0.05351730349084625</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.02793703188677945</v>
+      </c>
+      <c r="H27">
+        <v>-0.001940191256327789</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.08175561576967168</v>
+        <v>-0.1419048850421568</v>
       </c>
       <c r="C28">
-        <v>0.06295153340039278</v>
+        <v>-0.04556177460771518</v>
       </c>
       <c r="D28">
-        <v>-0.03251445301710684</v>
+        <v>0.2128374038258157</v>
       </c>
       <c r="E28">
-        <v>0.1779780885460231</v>
+        <v>0.02348143363732008</v>
       </c>
       <c r="F28">
-        <v>0.07286550435680771</v>
+        <v>-0.1078156304311648</v>
       </c>
       <c r="G28">
-        <v>0.01904021572689049</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.01317789874132206</v>
+      </c>
+      <c r="H28">
+        <v>-0.009084259646149258</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.01837705073266085</v>
+        <v>-0.02015520106436749</v>
       </c>
       <c r="C29">
-        <v>0.02454815702694527</v>
+        <v>-0.003404513792003385</v>
       </c>
       <c r="D29">
-        <v>-0.006295720548980799</v>
+        <v>-0.003233754240768074</v>
       </c>
       <c r="E29">
-        <v>-0.05957508345797525</v>
+        <v>-0.01087099069734036</v>
       </c>
       <c r="F29">
-        <v>0.04902406673570398</v>
+        <v>0.02922594367304499</v>
       </c>
       <c r="G29">
-        <v>0.05783850461453731</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.03569794955776923</v>
+      </c>
+      <c r="H29">
+        <v>-0.02152374982885612</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.08482649812197458</v>
+        <v>-0.05446515827376827</v>
       </c>
       <c r="C30">
-        <v>0.05486916891315308</v>
+        <v>8.704756785487475e-06</v>
       </c>
       <c r="D30">
-        <v>0.03656591018516964</v>
+        <v>-0.05500645391910416</v>
       </c>
       <c r="E30">
-        <v>-0.091651582493567</v>
+        <v>0.03556855669869845</v>
       </c>
       <c r="F30">
-        <v>0.05598943042679159</v>
+        <v>0.07741013426778855</v>
       </c>
       <c r="G30">
-        <v>0.01886100863348234</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.06334455881617543</v>
+      </c>
+      <c r="H30">
+        <v>0.03567721945184886</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.06006715991638497</v>
+        <v>-0.05412854267338107</v>
       </c>
       <c r="C31">
-        <v>0.01694028017838008</v>
+        <v>-0.01825567074683899</v>
       </c>
       <c r="D31">
-        <v>0.04902047807911365</v>
+        <v>-0.02459741050111197</v>
       </c>
       <c r="E31">
-        <v>-0.03855917873357433</v>
+        <v>0.009772954181617027</v>
       </c>
       <c r="F31">
-        <v>0.03963283034836994</v>
+        <v>0.02237969847747767</v>
       </c>
       <c r="G31">
-        <v>0.08238773922397483</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.02394412151269095</v>
+      </c>
+      <c r="H31">
+        <v>-0.01699629471831515</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01720291536938399</v>
+        <v>-0.01160248698114366</v>
       </c>
       <c r="C32">
-        <v>0.02452270840224354</v>
+        <v>-0.01594428571979884</v>
       </c>
       <c r="D32">
-        <v>-0.002513502467815125</v>
+        <v>0.00807276585549016</v>
       </c>
       <c r="E32">
-        <v>-0.07126410462440956</v>
+        <v>-0.01821443694283892</v>
       </c>
       <c r="F32">
-        <v>0.06728740180179135</v>
+        <v>0.04281524596359862</v>
       </c>
       <c r="G32">
-        <v>0.03319684864176019</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.05227290478416376</v>
+      </c>
+      <c r="H32">
+        <v>0.04153426557814913</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.05286024943471496</v>
+        <v>-0.03797830393212599</v>
       </c>
       <c r="C33">
-        <v>0.003699296569707499</v>
+        <v>-0.002597287430026572</v>
       </c>
       <c r="D33">
-        <v>0.04581504093312206</v>
+        <v>-0.03159244848631141</v>
       </c>
       <c r="E33">
-        <v>-0.07440398483506058</v>
+        <v>0.02318889646343682</v>
       </c>
       <c r="F33">
-        <v>0.09418169737577191</v>
+        <v>0.01619368101657527</v>
       </c>
       <c r="G33">
-        <v>0.03176592614149154</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.06209609509869629</v>
+      </c>
+      <c r="H33">
+        <v>0.01486618316846259</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03051277680640012</v>
+        <v>-0.02621833591757852</v>
       </c>
       <c r="C34">
-        <v>0.01743217466185952</v>
+        <v>-0.0185463434959185</v>
       </c>
       <c r="D34">
-        <v>0.01219259861304801</v>
+        <v>-0.02804973820745022</v>
       </c>
       <c r="E34">
-        <v>-0.04186987266834732</v>
+        <v>-0.005610493774704791</v>
       </c>
       <c r="F34">
-        <v>0.04179171914821172</v>
+        <v>0.02657335832324964</v>
       </c>
       <c r="G34">
-        <v>0.005566076728669278</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.02741795063695463</v>
+      </c>
+      <c r="H34">
+        <v>0.02414530054405997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01316656899691014</v>
+        <v>-0.0188250217948911</v>
       </c>
       <c r="C36">
-        <v>0.01360776598075781</v>
+        <v>0.002825892423603955</v>
       </c>
       <c r="D36">
-        <v>0.001211763130147548</v>
+        <v>0.003208248046370563</v>
       </c>
       <c r="E36">
-        <v>-0.02949177947389006</v>
+        <v>-0.002769749106798519</v>
       </c>
       <c r="F36">
-        <v>0.02681297608982778</v>
+        <v>0.009095885778170764</v>
       </c>
       <c r="G36">
-        <v>0.03291957156943746</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.01964461189839328</v>
+      </c>
+      <c r="H36">
+        <v>-0.005465808651443601</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.006277259272180718</v>
+        <v>-0.01663240316367549</v>
       </c>
       <c r="C38">
-        <v>-0.004120305611383571</v>
+        <v>-0.01643887598318651</v>
       </c>
       <c r="D38">
-        <v>-0.01152405741835099</v>
+        <v>0.002355112429719833</v>
       </c>
       <c r="E38">
-        <v>0.008242782592501727</v>
+        <v>-0.005834556584524884</v>
       </c>
       <c r="F38">
-        <v>0.00544277494290477</v>
+        <v>0.008847242008689679</v>
       </c>
       <c r="G38">
-        <v>-0.007676649796774885</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.02778669485613832</v>
+      </c>
+      <c r="H38">
+        <v>0.02056422145398362</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.03871932695336378</v>
+        <v>-0.02360528637256046</v>
       </c>
       <c r="C39">
-        <v>0.02299139850847601</v>
+        <v>-0.002660748611283975</v>
       </c>
       <c r="D39">
-        <v>0.03017895879604342</v>
+        <v>-0.0651016810765165</v>
       </c>
       <c r="E39">
-        <v>-0.04366666212209508</v>
+        <v>0.002005988159921334</v>
       </c>
       <c r="F39">
-        <v>0.04628124801684493</v>
+        <v>0.04612310165554474</v>
       </c>
       <c r="G39">
-        <v>0.009877050556030168</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.0549053763814151</v>
+      </c>
+      <c r="H39">
+        <v>0.0490687564528645</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.0298853602530716</v>
+        <v>-0.02765371975538688</v>
       </c>
       <c r="C40">
-        <v>0.03974965599129625</v>
+        <v>-0.001856287770292044</v>
       </c>
       <c r="D40">
-        <v>0.05570855822140319</v>
+        <v>-0.02117174850025636</v>
       </c>
       <c r="E40">
-        <v>-0.03860538312827683</v>
+        <v>0.01966826815019179</v>
       </c>
       <c r="F40">
-        <v>0.09089930144134405</v>
+        <v>0.03743209373880144</v>
       </c>
       <c r="G40">
-        <v>0.04135192796664382</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.0421452363515815</v>
+      </c>
+      <c r="H40">
+        <v>0.04275246893401873</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.001656046882282326</v>
+        <v>-0.00821460616155107</v>
       </c>
       <c r="C41">
-        <v>-0.007035082231971079</v>
+        <v>0.000637279976156574</v>
       </c>
       <c r="D41">
-        <v>0.007044310351957587</v>
+        <v>0.008854048441870632</v>
       </c>
       <c r="E41">
-        <v>-0.02265987984373614</v>
+        <v>0.001705395610736816</v>
       </c>
       <c r="F41">
-        <v>0.01532254068353107</v>
+        <v>-0.003958607819413542</v>
       </c>
       <c r="G41">
-        <v>0.06696522225469891</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.008498675081639106</v>
+      </c>
+      <c r="H41">
+        <v>-0.01872236516940787</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.356412266912477</v>
+        <v>-0.1940873166871972</v>
       </c>
       <c r="C42">
-        <v>-0.8922251340119047</v>
+        <v>0.1035500431870561</v>
       </c>
       <c r="D42">
-        <v>0.1873151040821789</v>
+        <v>-0.5770620252289389</v>
       </c>
       <c r="E42">
-        <v>0.1003472905073692</v>
+        <v>0.1240045693099724</v>
       </c>
       <c r="F42">
-        <v>-0.02456166297927304</v>
+        <v>-0.7620450445521699</v>
       </c>
       <c r="G42">
-        <v>0.02216551205547518</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.07073049246689349</v>
+      </c>
+      <c r="H42">
+        <v>0.01417763802942815</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.007405432620668969</v>
+        <v>-0.006359274887029037</v>
       </c>
       <c r="C43">
-        <v>-0.003198477574313073</v>
+        <v>0.002758786393264081</v>
       </c>
       <c r="D43">
-        <v>0.01012940957245622</v>
+        <v>0.01219563289997046</v>
       </c>
       <c r="E43">
-        <v>-0.02542131700465318</v>
+        <v>0.005883892619800445</v>
       </c>
       <c r="F43">
-        <v>0.03424352888165461</v>
+        <v>-0.009277806638226156</v>
       </c>
       <c r="G43">
-        <v>0.05762705722759973</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.01734824609411852</v>
+      </c>
+      <c r="H43">
+        <v>-0.01116820933909528</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01930942758576676</v>
+        <v>-0.01249177444719492</v>
       </c>
       <c r="C44">
-        <v>0.003116278825009435</v>
+        <v>-4.247819534722946e-05</v>
       </c>
       <c r="D44">
-        <v>0.02495081940633274</v>
+        <v>-0.02252702916590863</v>
       </c>
       <c r="E44">
-        <v>-0.07082156971488394</v>
+        <v>-0.001542195071404297</v>
       </c>
       <c r="F44">
-        <v>0.1937021591890808</v>
+        <v>0.006061722632330465</v>
       </c>
       <c r="G44">
-        <v>0.1620067133817679</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.08841419731831845</v>
+      </c>
+      <c r="H44">
+        <v>0.01324865020571546</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01785094140495617</v>
+        <v>-0.02039222902875699</v>
       </c>
       <c r="C46">
-        <v>0.02371351375310346</v>
+        <v>0.0005036057170873703</v>
       </c>
       <c r="D46">
-        <v>0.01903535676542344</v>
+        <v>-0.005780244789936416</v>
       </c>
       <c r="E46">
-        <v>-0.06848329453584613</v>
+        <v>0.001388290693989583</v>
       </c>
       <c r="F46">
-        <v>0.06879347459725844</v>
+        <v>0.03395825042351729</v>
       </c>
       <c r="G46">
-        <v>0.04213206922409551</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.05691058140649784</v>
+      </c>
+      <c r="H46">
+        <v>-0.01527678320542832</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09526426311638754</v>
+        <v>-0.07468257260170572</v>
       </c>
       <c r="C47">
-        <v>0.0343419697404459</v>
+        <v>-0.03547679204781111</v>
       </c>
       <c r="D47">
-        <v>0.02590563263610362</v>
+        <v>-0.03050938955713663</v>
       </c>
       <c r="E47">
-        <v>-0.04333163120165774</v>
+        <v>0.005610742778017371</v>
       </c>
       <c r="F47">
-        <v>0.01057882346986731</v>
+        <v>0.03332595891376167</v>
       </c>
       <c r="G47">
-        <v>0.09390695258452722</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.009000866511645398</v>
+      </c>
+      <c r="H47">
+        <v>-0.03291216912417057</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01106168848449663</v>
+        <v>-0.01890949171722393</v>
       </c>
       <c r="C48">
-        <v>0.006478085895613506</v>
+        <v>-0.007053049661886677</v>
       </c>
       <c r="D48">
-        <v>0.01358535701058314</v>
+        <v>-0.003722478590435907</v>
       </c>
       <c r="E48">
-        <v>-0.03986977778029498</v>
+        <v>0.001746493685561843</v>
       </c>
       <c r="F48">
-        <v>0.0409013963219654</v>
+        <v>0.01180960049148424</v>
       </c>
       <c r="G48">
-        <v>0.008238133302514781</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.02708858078234843</v>
+      </c>
+      <c r="H48">
+        <v>-0.001256320693282193</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.08755938249908919</v>
+        <v>-0.06655072869564757</v>
       </c>
       <c r="C50">
-        <v>0.0149942893734299</v>
+        <v>-0.02871395388223017</v>
       </c>
       <c r="D50">
-        <v>0.03704636189160863</v>
+        <v>-0.04269739865261482</v>
       </c>
       <c r="E50">
-        <v>-0.06032731279958366</v>
+        <v>-0.009582553063743164</v>
       </c>
       <c r="F50">
-        <v>0.02581320033132864</v>
+        <v>0.02862308927639505</v>
       </c>
       <c r="G50">
-        <v>0.02319823316492826</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.02325715094916146</v>
+      </c>
+      <c r="H50">
+        <v>-0.02893067013958892</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02537230449660395</v>
+        <v>-0.02073162968042906</v>
       </c>
       <c r="C51">
-        <v>0.01883326199185591</v>
+        <v>-0.001585614891392483</v>
       </c>
       <c r="D51">
-        <v>0.03293708245579382</v>
+        <v>0.009483041802765681</v>
       </c>
       <c r="E51">
-        <v>-0.03829361068731367</v>
+        <v>0.007198445642750956</v>
       </c>
       <c r="F51">
-        <v>0.1297740037359369</v>
+        <v>-0.0005473574657012027</v>
       </c>
       <c r="G51">
-        <v>0.03630308564318816</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.07369817788312001</v>
+      </c>
+      <c r="H51">
+        <v>0.02308375048081013</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1039989569454225</v>
+        <v>-0.09495869300092152</v>
       </c>
       <c r="C53">
-        <v>0.04884255787727577</v>
+        <v>-0.04422596259574608</v>
       </c>
       <c r="D53">
-        <v>0.04225410911938634</v>
+        <v>-0.05775652730283876</v>
       </c>
       <c r="E53">
-        <v>-0.04845041463622292</v>
+        <v>0.003724164209209621</v>
       </c>
       <c r="F53">
-        <v>-0.05438387621561083</v>
+        <v>0.06689174550316558</v>
       </c>
       <c r="G53">
-        <v>0.04654881592959319</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.05640112152489084</v>
+      </c>
+      <c r="H53">
+        <v>-0.03656585862477658</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.01848661357511225</v>
+        <v>-0.02411013213724209</v>
       </c>
       <c r="C54">
-        <v>0.03850907801842094</v>
+        <v>-0.01502611739130868</v>
       </c>
       <c r="D54">
-        <v>0.0008751167387743132</v>
+        <v>0.02357010712148141</v>
       </c>
       <c r="E54">
-        <v>-0.03430669866118856</v>
+        <v>-0.003902181549485188</v>
       </c>
       <c r="F54">
-        <v>0.07442242239307509</v>
+        <v>0.01297668250967873</v>
       </c>
       <c r="G54">
-        <v>0.07418630362312018</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.0381569520685426</v>
+      </c>
+      <c r="H54">
+        <v>-0.01780156141488368</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1011769988805718</v>
+        <v>-0.08112110744855947</v>
       </c>
       <c r="C55">
-        <v>0.03254809327956252</v>
+        <v>-0.03862225116723102</v>
       </c>
       <c r="D55">
-        <v>0.002395759216333629</v>
+        <v>-0.05836558961442304</v>
       </c>
       <c r="E55">
-        <v>-0.05547983998661707</v>
+        <v>-0.008358357250429115</v>
       </c>
       <c r="F55">
-        <v>-0.04369808917942865</v>
+        <v>0.05628197126059226</v>
       </c>
       <c r="G55">
-        <v>0.07518305941109811</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.03634456813304476</v>
+      </c>
+      <c r="H55">
+        <v>-0.04763255865960816</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1455872844302896</v>
+        <v>-0.127565202730482</v>
       </c>
       <c r="C56">
-        <v>0.07621923886734804</v>
+        <v>-0.06564953159414319</v>
       </c>
       <c r="D56">
-        <v>0.02916719782699152</v>
+        <v>-0.07779239355774777</v>
       </c>
       <c r="E56">
-        <v>-0.06481140190420093</v>
+        <v>-0.0001068665673147457</v>
       </c>
       <c r="F56">
-        <v>-0.1589043232505955</v>
+        <v>0.09437288666780014</v>
       </c>
       <c r="G56">
-        <v>0.02982812461439187</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.1028929662190905</v>
+      </c>
+      <c r="H56">
+        <v>-0.02833832871173821</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.04488261856352291</v>
+        <v>-0.04488230031577763</v>
       </c>
       <c r="C57">
-        <v>0.01077643079393965</v>
+        <v>0.005528239784351742</v>
       </c>
       <c r="D57">
-        <v>0.03605142323631804</v>
+        <v>-0.01997339951810663</v>
       </c>
       <c r="E57">
-        <v>-0.007998912648929817</v>
+        <v>0.01187282311257815</v>
       </c>
       <c r="F57">
-        <v>0.07869576378812783</v>
+        <v>0.02474917110846644</v>
       </c>
       <c r="G57">
-        <v>0.01866280153282501</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.06229131418344601</v>
+      </c>
+      <c r="H57">
+        <v>0.009785872211367655</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1945968335336786</v>
+        <v>-0.1428665655440734</v>
       </c>
       <c r="C58">
-        <v>0.05195616341339147</v>
+        <v>-0.050499780189072</v>
       </c>
       <c r="D58">
-        <v>0.1115954449653571</v>
+        <v>-0.1255866238794318</v>
       </c>
       <c r="E58">
-        <v>-0.2566657226019176</v>
+        <v>0.114610795805551</v>
       </c>
       <c r="F58">
-        <v>0.2149405423333698</v>
+        <v>0.06072797037170571</v>
       </c>
       <c r="G58">
-        <v>-0.2221370445297141</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.6808171742039819</v>
+      </c>
+      <c r="H58">
+        <v>-0.5408513593152653</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.07965619964167459</v>
+        <v>-0.1445746881770691</v>
       </c>
       <c r="C59">
-        <v>0.08710979409005576</v>
+        <v>-0.05294985738227397</v>
       </c>
       <c r="D59">
-        <v>-0.02265353799522748</v>
+        <v>0.2120718236337881</v>
       </c>
       <c r="E59">
-        <v>0.1523199367180002</v>
+        <v>0.04088913532746065</v>
       </c>
       <c r="F59">
-        <v>0.06789290377734314</v>
+        <v>-0.088813726936342</v>
       </c>
       <c r="G59">
-        <v>-0.005474993477363344</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.02075109672325047</v>
+      </c>
+      <c r="H59">
+        <v>0.02106806912898267</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1681189335653607</v>
+        <v>-0.1670727125161024</v>
       </c>
       <c r="C60">
-        <v>0.05898725300194331</v>
+        <v>-0.04902272991606507</v>
       </c>
       <c r="D60">
-        <v>0.07439890655574206</v>
+        <v>-0.01562696213858919</v>
       </c>
       <c r="E60">
-        <v>-0.02865875234066724</v>
+        <v>0.05567994860440312</v>
       </c>
       <c r="F60">
-        <v>0.07729793983423978</v>
+        <v>0.0577574479486222</v>
       </c>
       <c r="G60">
-        <v>-0.3271739252612282</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.1295483702865898</v>
+      </c>
+      <c r="H60">
+        <v>0.3749613069804236</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02147712959677263</v>
+        <v>-0.02362480894581389</v>
       </c>
       <c r="C61">
-        <v>0.01235559366455646</v>
+        <v>-0.008427090219916033</v>
       </c>
       <c r="D61">
-        <v>0.005936630782184687</v>
+        <v>-0.03452956769059793</v>
       </c>
       <c r="E61">
-        <v>-0.02079303143714727</v>
+        <v>-0.00249420565084115</v>
       </c>
       <c r="F61">
-        <v>0.03467065511979285</v>
+        <v>0.03258112079660215</v>
       </c>
       <c r="G61">
-        <v>0.005223431736988801</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.03198556375224302</v>
+      </c>
+      <c r="H61">
+        <v>0.03694081049641971</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01885778833689555</v>
+        <v>-0.0147503208534343</v>
       </c>
       <c r="C63">
-        <v>0.01721698672958783</v>
+        <v>-0.0002223786127786356</v>
       </c>
       <c r="D63">
-        <v>0.01305672924528915</v>
+        <v>-0.005311030329873363</v>
       </c>
       <c r="E63">
-        <v>-0.04255929195214524</v>
+        <v>-0.001984452132033911</v>
       </c>
       <c r="F63">
-        <v>0.01156694217415741</v>
+        <v>0.02251875964534671</v>
       </c>
       <c r="G63">
-        <v>0.04557572845139058</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.01532612136640586</v>
+      </c>
+      <c r="H63">
+        <v>-0.01421085228895034</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.03433235591740905</v>
+        <v>-0.03954921444574543</v>
       </c>
       <c r="C64">
-        <v>0.02512780884379586</v>
+        <v>-0.01276322559858025</v>
       </c>
       <c r="D64">
-        <v>-0.01989244983381505</v>
+        <v>-0.03006856362066227</v>
       </c>
       <c r="E64">
-        <v>-0.04373463864918421</v>
+        <v>-0.01133555800159358</v>
       </c>
       <c r="F64">
-        <v>0.02911034860418305</v>
+        <v>0.02730282539288068</v>
       </c>
       <c r="G64">
-        <v>0.06321253976383832</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.01966536128110999</v>
+      </c>
+      <c r="H64">
+        <v>0.0256841615972521</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.01200639937229653</v>
+        <v>-0.03498102991215821</v>
       </c>
       <c r="C65">
-        <v>-0.001692997052657183</v>
+        <v>0.00159526830920588</v>
       </c>
       <c r="D65">
-        <v>0.01176858320295456</v>
+        <v>-0.04066151975433162</v>
       </c>
       <c r="E65">
-        <v>-0.009966600744778549</v>
+        <v>-0.005403228338813727</v>
       </c>
       <c r="F65">
-        <v>0.008787575570142269</v>
+        <v>0.03802177611385087</v>
       </c>
       <c r="G65">
-        <v>-0.01697833774486271</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.002683409701505055</v>
+      </c>
+      <c r="H65">
+        <v>0.06016085717555211</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.03758072510723489</v>
+        <v>-0.03133689789033039</v>
       </c>
       <c r="C66">
-        <v>0.0274239007149787</v>
+        <v>-0.00857713042214053</v>
       </c>
       <c r="D66">
-        <v>0.02283659890422731</v>
+        <v>-0.07260928494371625</v>
       </c>
       <c r="E66">
-        <v>-0.04316340096594155</v>
+        <v>0.00748502902936328</v>
       </c>
       <c r="F66">
-        <v>0.04168322643634286</v>
+        <v>0.06533297022448363</v>
       </c>
       <c r="G66">
-        <v>-0.005428595298958838</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.04664442767951758</v>
+      </c>
+      <c r="H66">
+        <v>0.05882616656723983</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.026675174909224</v>
+        <v>-0.03704932148270763</v>
       </c>
       <c r="C67">
-        <v>0.003785550772626848</v>
+        <v>-0.02142693304403133</v>
       </c>
       <c r="D67">
-        <v>-0.01200629306001015</v>
+        <v>0.008308320001965424</v>
       </c>
       <c r="E67">
-        <v>0.02931851384931764</v>
+        <v>-0.002419683320544281</v>
       </c>
       <c r="F67">
-        <v>0.01393511828701836</v>
+        <v>0.01100452154967224</v>
       </c>
       <c r="G67">
-        <v>-0.006874205700527374</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.01663873099964045</v>
+      </c>
+      <c r="H67">
+        <v>0.03214304703772986</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.08708226081226718</v>
+        <v>-0.1468176687017645</v>
       </c>
       <c r="C68">
-        <v>0.06478419547791268</v>
+        <v>-0.03129676694880749</v>
       </c>
       <c r="D68">
-        <v>-0.03684060207633087</v>
+        <v>0.1974329971613933</v>
       </c>
       <c r="E68">
-        <v>0.1765102024433569</v>
+        <v>0.03600850529738361</v>
       </c>
       <c r="F68">
-        <v>0.03922734117215858</v>
+        <v>-0.1087379097439741</v>
       </c>
       <c r="G68">
-        <v>-0.04991711776857693</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.01988180811357755</v>
+      </c>
+      <c r="H68">
+        <v>-0.03937136241055813</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.07366365234094314</v>
+        <v>-0.05771840690547327</v>
       </c>
       <c r="C69">
-        <v>0.03291878333089034</v>
+        <v>-0.03199925050598786</v>
       </c>
       <c r="D69">
-        <v>0.02699814022000529</v>
+        <v>-0.0280941855987104</v>
       </c>
       <c r="E69">
-        <v>-0.009565244719885587</v>
+        <v>0.004973263894115737</v>
       </c>
       <c r="F69">
-        <v>0.02448114918072887</v>
+        <v>0.03114191251371911</v>
       </c>
       <c r="G69">
-        <v>0.07379431332558822</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.002852569827151341</v>
+      </c>
+      <c r="H69">
+        <v>-0.0128805014064217</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.10825248835996</v>
+        <v>-0.1403358072259489</v>
       </c>
       <c r="C71">
-        <v>0.07040148397311462</v>
+        <v>-0.03900109015507519</v>
       </c>
       <c r="D71">
-        <v>-0.0140074729073056</v>
+        <v>0.1832009371561098</v>
       </c>
       <c r="E71">
-        <v>0.2177872089160379</v>
+        <v>0.03643330088413947</v>
       </c>
       <c r="F71">
-        <v>0.05990363423658943</v>
+        <v>-0.1135376314118763</v>
       </c>
       <c r="G71">
-        <v>-0.005635603421749325</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.01932213305972911</v>
+      </c>
+      <c r="H71">
+        <v>-0.02351861361332332</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1114651909742204</v>
+        <v>-0.08827118818817019</v>
       </c>
       <c r="C72">
-        <v>0.09632183852210691</v>
+        <v>-0.0491285844226198</v>
       </c>
       <c r="D72">
-        <v>0.01935070697634879</v>
+        <v>-0.05879733518442908</v>
       </c>
       <c r="E72">
-        <v>-0.06991919863315275</v>
+        <v>0.009515995226143487</v>
       </c>
       <c r="F72">
-        <v>0.07812378111277803</v>
+        <v>0.1098971615152244</v>
       </c>
       <c r="G72">
-        <v>-0.1703731563033125</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.09675564317928317</v>
+      </c>
+      <c r="H72">
+        <v>0.1485957028829559</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2520881106510074</v>
+        <v>-0.2379141318180973</v>
       </c>
       <c r="C73">
-        <v>0.08634039958451153</v>
+        <v>-0.06561580357921132</v>
       </c>
       <c r="D73">
-        <v>0.06948901143731157</v>
+        <v>-0.05076617895247537</v>
       </c>
       <c r="E73">
-        <v>0.01282617424176748</v>
+        <v>0.08503450704116042</v>
       </c>
       <c r="F73">
-        <v>0.1554208316271455</v>
+        <v>0.07505158691210814</v>
       </c>
       <c r="G73">
-        <v>-0.5219010041453851</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.1859971378202603</v>
+      </c>
+      <c r="H73">
+        <v>0.5141280937356224</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1241892847566108</v>
+        <v>-0.1147432849590082</v>
       </c>
       <c r="C74">
-        <v>0.04110488713976277</v>
+        <v>-0.05838839499145348</v>
       </c>
       <c r="D74">
-        <v>0.03613510072211503</v>
+        <v>-0.07782576038304939</v>
       </c>
       <c r="E74">
-        <v>-0.02671789093812476</v>
+        <v>0.007983549113372294</v>
       </c>
       <c r="F74">
-        <v>-0.1086354924035224</v>
+        <v>0.07733754799827819</v>
       </c>
       <c r="G74">
-        <v>0.01038385263476915</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.07756799942111904</v>
+      </c>
+      <c r="H74">
+        <v>-0.009172529466830137</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2182233152808636</v>
+        <v>-0.2270131818790816</v>
       </c>
       <c r="C75">
-        <v>0.1165493227288062</v>
+        <v>-0.1176821395641237</v>
       </c>
       <c r="D75">
-        <v>0.07069795490817735</v>
+        <v>-0.1194059953250675</v>
       </c>
       <c r="E75">
-        <v>-0.08926546511104197</v>
+        <v>0.02733109093190077</v>
       </c>
       <c r="F75">
-        <v>-0.1751161088315833</v>
+        <v>0.1551961583277209</v>
       </c>
       <c r="G75">
-        <v>0.1096456415620189</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.1603208194902142</v>
+      </c>
+      <c r="H75">
+        <v>-0.09088765872111478</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2630212178432036</v>
+        <v>-0.2075255121280712</v>
       </c>
       <c r="C76">
-        <v>0.1184788561875381</v>
+        <v>-0.1116979757222406</v>
       </c>
       <c r="D76">
-        <v>0.01107130251479167</v>
+        <v>-0.1085805639699466</v>
       </c>
       <c r="E76">
-        <v>-0.05690480331218926</v>
+        <v>-0.01379504793443876</v>
       </c>
       <c r="F76">
-        <v>-0.1938973984066032</v>
+        <v>0.1481435651292204</v>
       </c>
       <c r="G76">
-        <v>0.09476844671209256</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.1727541417197029</v>
+      </c>
+      <c r="H76">
+        <v>-0.09131910362195116</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1404396514860798</v>
+        <v>-0.07540887644743825</v>
       </c>
       <c r="C77">
-        <v>-0.01985475565985144</v>
+        <v>-0.01410724056547802</v>
       </c>
       <c r="D77">
-        <v>0.0671833845359648</v>
+        <v>-0.07472868344625062</v>
       </c>
       <c r="E77">
-        <v>-0.1163750183100526</v>
+        <v>0.01425047851023416</v>
       </c>
       <c r="F77">
-        <v>0.243418822321006</v>
+        <v>0.005003749138840967</v>
       </c>
       <c r="G77">
-        <v>0.1234426494811076</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.1318064290497351</v>
+      </c>
+      <c r="H77">
+        <v>-0.06779517131719798</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.05101710945759296</v>
+        <v>-0.03486021471859947</v>
       </c>
       <c r="C78">
-        <v>0.0142338697086046</v>
+        <v>-0.01150530067348891</v>
       </c>
       <c r="D78">
-        <v>0.03327590764332522</v>
+        <v>-0.05854329936600596</v>
       </c>
       <c r="E78">
-        <v>-0.1123212459938085</v>
+        <v>-0.003676834001667098</v>
       </c>
       <c r="F78">
-        <v>0.03509738855721107</v>
+        <v>0.05398653872188201</v>
       </c>
       <c r="G78">
-        <v>0.04971149951540273</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.05170633904096403</v>
+      </c>
+      <c r="H78">
+        <v>0.02784136082036801</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.2212595351929081</v>
+        <v>-0.1776390497651801</v>
       </c>
       <c r="C80">
-        <v>-0.140768245616471</v>
+        <v>-0.06601761451020288</v>
       </c>
       <c r="D80">
-        <v>-0.9269799712362582</v>
+        <v>-0.01876038979174992</v>
       </c>
       <c r="E80">
-        <v>-0.2212333918497939</v>
+        <v>-0.9602579560543135</v>
       </c>
       <c r="F80">
-        <v>0.03770965766662299</v>
+        <v>-0.1226783203638753</v>
       </c>
       <c r="G80">
-        <v>-0.03976742495648092</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.09756994193129613</v>
+      </c>
+      <c r="H80">
+        <v>0.009347550147057595</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1559387791924562</v>
+        <v>-0.1519228953637336</v>
       </c>
       <c r="C81">
-        <v>0.09585658761258618</v>
+        <v>-0.07850107826573163</v>
       </c>
       <c r="D81">
-        <v>0.01976773116522196</v>
+        <v>-0.07107290069651849</v>
       </c>
       <c r="E81">
-        <v>-0.05188768516657857</v>
+        <v>0.0030757709717873</v>
       </c>
       <c r="F81">
-        <v>-0.1673767865588208</v>
+        <v>0.1041184523089718</v>
       </c>
       <c r="G81">
-        <v>0.0339261012462732</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.1035824596548915</v>
+      </c>
+      <c r="H81">
+        <v>-0.06666501500375654</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.04949303939521927</v>
+        <v>-0.03769142906791078</v>
       </c>
       <c r="C83">
-        <v>-0.008050032806458581</v>
+        <v>-0.009677078324759123</v>
       </c>
       <c r="D83">
-        <v>0.03827610735072327</v>
+        <v>-0.0201262600385296</v>
       </c>
       <c r="E83">
-        <v>-0.04140402689768222</v>
+        <v>0.01269486384405027</v>
       </c>
       <c r="F83">
-        <v>0.07082307625339902</v>
+        <v>0.01397324518321837</v>
       </c>
       <c r="G83">
-        <v>0.03442506161167781</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.05873242854753937</v>
+      </c>
+      <c r="H83">
+        <v>0.01412214727399248</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.228135721922557</v>
+        <v>-0.2103217354298066</v>
       </c>
       <c r="C85">
-        <v>0.100612452140451</v>
+        <v>-0.09689602797541676</v>
       </c>
       <c r="D85">
-        <v>0.04174531979370486</v>
+        <v>-0.1244960443190112</v>
       </c>
       <c r="E85">
-        <v>-0.05548691327130353</v>
+        <v>0.01607770324755003</v>
       </c>
       <c r="F85">
-        <v>-0.1843861032570384</v>
+        <v>0.1371122922729912</v>
       </c>
       <c r="G85">
-        <v>0.1106583124128377</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.1692138831794238</v>
+      </c>
+      <c r="H85">
+        <v>-0.06196174678972408</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.003222641691153525</v>
+        <v>-0.0136195087238313</v>
       </c>
       <c r="C86">
-        <v>-0.008529138170168701</v>
+        <v>0.001362269973099605</v>
       </c>
       <c r="D86">
-        <v>0.001406186203380018</v>
+        <v>-0.005068252589761811</v>
       </c>
       <c r="E86">
-        <v>-0.05138244914979617</v>
+        <v>0.009061046987008893</v>
       </c>
       <c r="F86">
-        <v>0.08027139039771479</v>
+        <v>-0.00156664726685905</v>
       </c>
       <c r="G86">
-        <v>0.01893254651750239</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.08715976510896199</v>
+      </c>
+      <c r="H86">
+        <v>0.03720127531333171</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.03075163135213869</v>
+        <v>-0.02755977855447641</v>
       </c>
       <c r="C87">
-        <v>0.008168819974514231</v>
+        <v>-0.004397636249159811</v>
       </c>
       <c r="D87">
-        <v>0.0148250132137818</v>
+        <v>-0.0263900047042644</v>
       </c>
       <c r="E87">
-        <v>-0.03372644237364625</v>
+        <v>0.00131733207655786</v>
       </c>
       <c r="F87">
-        <v>0.08149346564307464</v>
+        <v>0.02701153793276303</v>
       </c>
       <c r="G87">
-        <v>-0.03055266176168972</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.09357294022736347</v>
+      </c>
+      <c r="H87">
+        <v>0.02706749859653173</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.01018322706045824</v>
+        <v>-0.03852516238661413</v>
       </c>
       <c r="C88">
-        <v>0.01854187098396868</v>
+        <v>0.007506972821045129</v>
       </c>
       <c r="D88">
-        <v>-0.02389392684120333</v>
+        <v>0.005137587870439909</v>
       </c>
       <c r="E88">
-        <v>0.003776971942680352</v>
+        <v>-0.007251410218045924</v>
       </c>
       <c r="F88">
-        <v>0.03790333502000813</v>
+        <v>0.01323314555541204</v>
       </c>
       <c r="G88">
-        <v>0.07943925607962039</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.001491622107528628</v>
+      </c>
+      <c r="H88">
+        <v>0.006785528514797094</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.130062400736145</v>
+        <v>-0.2246416247909888</v>
       </c>
       <c r="C89">
-        <v>0.09081976073365228</v>
+        <v>-0.05838578991154651</v>
       </c>
       <c r="D89">
-        <v>-0.02045938018781513</v>
+        <v>0.3156248826670322</v>
       </c>
       <c r="E89">
-        <v>0.3003618635916668</v>
+        <v>0.07819665068001809</v>
       </c>
       <c r="F89">
-        <v>0.1183392791213206</v>
+        <v>-0.1635596601573923</v>
       </c>
       <c r="G89">
-        <v>0.05321426517114014</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.001542146016345153</v>
+      </c>
+      <c r="H89">
+        <v>-0.03047355971739201</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1159813558993032</v>
+        <v>-0.1795521562444099</v>
       </c>
       <c r="C90">
-        <v>0.09079306369072494</v>
+        <v>-0.04785162950039999</v>
       </c>
       <c r="D90">
-        <v>-0.06695086170727187</v>
+        <v>0.2785418097360982</v>
       </c>
       <c r="E90">
-        <v>0.2896652707627192</v>
+        <v>0.0512805525448248</v>
       </c>
       <c r="F90">
-        <v>0.08034958449350944</v>
+        <v>-0.1570519845244886</v>
       </c>
       <c r="G90">
-        <v>-0.008109082770000799</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.03174828168129776</v>
+      </c>
+      <c r="H90">
+        <v>-0.04580608613093585</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.2913081012078461</v>
+        <v>-0.2318896767145531</v>
       </c>
       <c r="C91">
-        <v>0.09257938629104627</v>
+        <v>-0.1183413325849957</v>
       </c>
       <c r="D91">
-        <v>0.06053401317235794</v>
+        <v>-0.1240629900049787</v>
       </c>
       <c r="E91">
-        <v>-0.04663551576121457</v>
+        <v>0.01848272097271868</v>
       </c>
       <c r="F91">
-        <v>-0.26270334898057</v>
+        <v>0.1423625243059948</v>
       </c>
       <c r="G91">
-        <v>0.08606727376838706</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.2100076872959645</v>
+      </c>
+      <c r="H91">
+        <v>-0.1239813569365035</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1859094787855536</v>
+        <v>-0.233394311580469</v>
       </c>
       <c r="C92">
-        <v>0.07237966760187664</v>
+        <v>-0.114817357677432</v>
       </c>
       <c r="D92">
-        <v>-0.09880091697317954</v>
+        <v>0.219525004578675</v>
       </c>
       <c r="E92">
-        <v>0.4393706941139951</v>
+        <v>0.03391578167184653</v>
       </c>
       <c r="F92">
-        <v>0.1844303446919168</v>
+        <v>-0.1279171902843119</v>
       </c>
       <c r="G92">
-        <v>0.2876087950369107</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.04215821951308876</v>
+      </c>
+      <c r="H92">
+        <v>-0.1424803621610179</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.1301431390932482</v>
+        <v>-0.2051186813276861</v>
       </c>
       <c r="C93">
-        <v>0.07141716831861142</v>
+        <v>-0.0611339833297996</v>
       </c>
       <c r="D93">
-        <v>-0.07989784334396571</v>
+        <v>0.2931169605270668</v>
       </c>
       <c r="E93">
-        <v>0.3977419945705375</v>
+        <v>0.06713473097563849</v>
       </c>
       <c r="F93">
-        <v>0.03357810470430945</v>
+        <v>-0.1942632285950212</v>
       </c>
       <c r="G93">
-        <v>-0.03464399266882887</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.04135430759534595</v>
+      </c>
+      <c r="H93">
+        <v>0.01513507259831745</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2634605188973715</v>
+        <v>-0.2509142357467786</v>
       </c>
       <c r="C94">
-        <v>0.1245520454719345</v>
+        <v>-0.1080508439744311</v>
       </c>
       <c r="D94">
-        <v>0.0278210606894183</v>
+        <v>-0.1042338331564626</v>
       </c>
       <c r="E94">
-        <v>-0.03303193288716379</v>
+        <v>0.03543245860707325</v>
       </c>
       <c r="F94">
-        <v>-0.303559709194972</v>
+        <v>0.1596125715674644</v>
       </c>
       <c r="G94">
-        <v>0.02252932890277601</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.216070772729049</v>
+      </c>
+      <c r="H94">
+        <v>-0.1360001413494002</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.07681223660224161</v>
+        <v>-0.06446487534343011</v>
       </c>
       <c r="C95">
-        <v>0.0145757023427625</v>
+        <v>-0.03557618058036185</v>
       </c>
       <c r="D95">
-        <v>0.06691844373211073</v>
+        <v>-0.07603888436810818</v>
       </c>
       <c r="E95">
-        <v>-0.07812299677677305</v>
+        <v>0.07308500001030059</v>
       </c>
       <c r="F95">
-        <v>0.05940455224013152</v>
+        <v>0.03123777163502201</v>
       </c>
       <c r="G95">
-        <v>0.3372612293186512</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.06288909634415225</v>
+      </c>
+      <c r="H95">
+        <v>0.002262220074177251</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1865298873099477</v>
+        <v>-0.1752435776750721</v>
       </c>
       <c r="C98">
-        <v>0.04012386614223498</v>
+        <v>-0.08077225197335085</v>
       </c>
       <c r="D98">
-        <v>0.05792201325668348</v>
+        <v>-0.03792241700538357</v>
       </c>
       <c r="E98">
-        <v>0.04224518156573453</v>
+        <v>0.05692282509572769</v>
       </c>
       <c r="F98">
-        <v>0.05236190987601858</v>
+        <v>0.03438609328937072</v>
       </c>
       <c r="G98">
-        <v>-0.3344655004517316</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.153985410858426</v>
+      </c>
+      <c r="H98">
+        <v>0.3727330493243983</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.001414052082361369</v>
+        <v>-0.01323986268363077</v>
       </c>
       <c r="C101">
-        <v>0.03018935694892098</v>
+        <v>-0.0009105928553732395</v>
       </c>
       <c r="D101">
-        <v>0.006800954046039576</v>
+        <v>-0.00344800569165851</v>
       </c>
       <c r="E101">
-        <v>-0.1345500362195282</v>
+        <v>-0.006508576043036411</v>
       </c>
       <c r="F101">
-        <v>0.1522528867250849</v>
+        <v>0.03685970782358501</v>
       </c>
       <c r="G101">
-        <v>0.01996535309316638</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.09812626735909848</v>
+      </c>
+      <c r="H101">
+        <v>-0.07444947211368752</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.09537392476836951</v>
+        <v>-0.1059405562029881</v>
       </c>
       <c r="C102">
-        <v>0.03003304322423266</v>
+        <v>-0.04114046039716068</v>
       </c>
       <c r="D102">
-        <v>0.01312612641946491</v>
+        <v>-0.06347302538078929</v>
       </c>
       <c r="E102">
-        <v>-0.06222899864039724</v>
+        <v>0.002023074314775018</v>
       </c>
       <c r="F102">
-        <v>-0.1238860653133181</v>
+        <v>0.07207958911090349</v>
       </c>
       <c r="G102">
-        <v>0.1008407900503847</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.09460197060364373</v>
+      </c>
+      <c r="H102">
+        <v>-0.0537139242255044</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.02658098452812294</v>
+        <v>-0.02220978507065898</v>
       </c>
       <c r="C103">
-        <v>0.01313932913700707</v>
+        <v>-0.009855751102849301</v>
       </c>
       <c r="D103">
-        <v>0.01192428692234482</v>
+        <v>-0.01315993426645196</v>
       </c>
       <c r="E103">
-        <v>-0.004656725081870971</v>
+        <v>-0.004880784375980551</v>
       </c>
       <c r="F103">
-        <v>-0.01796762530317595</v>
+        <v>0.01837033210500571</v>
       </c>
       <c r="G103">
-        <v>0.03161173786146592</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.006798511955120109</v>
+      </c>
+      <c r="H103">
+        <v>-0.01079627154087039</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.3369579555387598</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.9197515331894988</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.06391501709528397</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.02562230644409711</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.1564187657836275</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>0.04038492523339859</v>
+      </c>
+      <c r="H104">
+        <v>-0.03046495522291431</v>
       </c>
     </row>
   </sheetData>
